--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54065D2-3901-4A4B-9629-170D9C340EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UPC</t>
   </si>
@@ -24,18 +30,12 @@
   <si>
     <t>Price</t>
   </si>
-  <si>
-    <t>123456789012</t>
-  </si>
-  <si>
-    <t>987654321098</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +50,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF757575"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,24 +93,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -176,6 +191,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -210,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,14 +402,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,26 +427,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>76683052018</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>19.99</v>
+        <v>249.99</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>741569060080</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>34.99</v>
+        <v>487.99</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54065D2-3901-4A4B-9629-170D9C340EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A09F75-0F21-4FC2-A805-0723C3D0DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>UPC</t>
   </si>
@@ -29,6 +29,36 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Blazer 9mm 124</t>
+  </si>
+  <si>
+    <t>PMC BRONZE 223</t>
+  </si>
+  <si>
+    <t>IGMAN 7.62X39</t>
+  </si>
+  <si>
+    <t>FEDERAL 12GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINCHESTER 5.56 150RD </t>
+  </si>
+  <si>
+    <t>FEDERAL 9MM 200RD</t>
+  </si>
+  <si>
+    <t>FEDERAL 22LR BLACK PACK</t>
+  </si>
+  <si>
+    <t>CBC MAGTECH 5.56</t>
+  </si>
+  <si>
+    <t>BLAZER 45 ACP</t>
   </si>
 </sst>
 </file>
@@ -66,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,16 +119,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,9 +456,10 @@
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +469,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>76683052018</v>
       </c>
@@ -437,8 +483,11 @@
       <c r="C2">
         <v>249.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>741569060080</v>
       </c>
@@ -447,6 +496,121 @@
       </c>
       <c r="C3">
         <v>487.99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3877002037092</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>29465025922</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>111.99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>47700346007</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>111.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>20892225008</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>604544634211</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>604544695861</v>
+      </c>
+      <c r="B9">
+        <v>1100</v>
+      </c>
+      <c r="C9">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>754908200313</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>499.99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>76683052308</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>429.99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
